--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3747436.922958294</v>
+        <v>3822966.592623098</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>721933.2927034288</v>
+        <v>574134.627819759</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>139.1329950741216</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>84.6545924993103</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.461970681989245</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>146.4538219748019</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>342.2539560722655</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>165.4468773440099</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>20.48699093885593</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>11.31776988379643</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>20.1751418448721</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>224.4655717084151</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>99.90991062876934</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>20.94454531968543</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1528,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>91.20669925687524</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>92.4121556686938</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>66.90445977359194</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>25.57575632072753</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2008,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>9.621991078756796</v>
       </c>
       <c r="W19" t="n">
-        <v>54.07645896279755</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274154</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>74.80485990173203</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>69.67391997229328</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>157.7678763908788</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>190.542040806566</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>36.35922601564015</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>140.8771184231084</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>212.5171541480192</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>180.2851782418433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>153.3612566644542</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3317,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>37.36342890031424</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>23.47284014303695</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,7 +3678,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>128.7291503874041</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>97.99343201658878</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3898,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>196.2497498828333</v>
+        <v>71.78150107678982</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4183,7 +4185,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>39.11561436815803</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.7794577366496</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>601.1385180919704</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>460.6001392292213</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>160.3215760242197</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>153.3760752750163</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>139.4526712136072</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677821</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>601.1385180919704</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,16 +4415,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V4" t="n">
-        <v>432.0491721307175</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W4" t="n">
-        <v>432.0491721307175</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>63.50052796378793</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2530.03103309498</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.396366067043</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.634580705134</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.634580705134</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.86592543502</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1331.40016717394</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>941.2608351981287</v>
       </c>
     </row>
     <row r="6">
@@ -4647,7 +4649,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.9658229629848</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C7" t="n">
-        <v>210.9658229629848</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>539.1333157025265</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>539.1333157025265</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>539.1333157025265</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>539.1333157025265</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="X7" t="n">
-        <v>210.9658229629848</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.9658229629848</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2676.770159861786</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2458.135492833849</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2458.135492833849</v>
       </c>
       <c r="V8" t="n">
-        <v>1998.019737912806</v>
+        <v>2458.135492833849</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>2105.366837563734</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>1731.901079302655</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>113.6371076753683</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>368.8844281164668</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>773.5003462121387</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1297.64725977017</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1851.373795869721</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5993065148977</v>
+        <v>302.7751770479791</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>302.7751770479791</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>471.403877728658</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>450.2477713451374</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>450.2477713451374</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W10" t="n">
-        <v>450.2477713451374</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X10" t="n">
-        <v>450.2477713451374</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.2477713451374</v>
+        <v>484.4236418782189</v>
       </c>
     </row>
     <row r="11">
@@ -5048,7 +5050,7 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619128</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,25 +5068,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5123,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M12" t="n">
-        <v>1797.533454227377</v>
+        <v>990.9427979105849</v>
       </c>
       <c r="N12" t="n">
-        <v>1797.533454227377</v>
+        <v>1335.463453548203</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2004.927214850862</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.22783658661</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>356.6647764207315</v>
+        <v>357.520392187814</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V13" t="n">
-        <v>805.446906462279</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W13" t="n">
-        <v>805.446906462279</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X13" t="n">
-        <v>577.4573555642617</v>
+        <v>357.520392187814</v>
       </c>
       <c r="Y13" t="n">
-        <v>356.6647764207315</v>
+        <v>357.520392187814</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>549.5984374701561</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>869.9337569998579</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N15" t="n">
-        <v>1214.454412637476</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O15" t="n">
-        <v>1883.918173940135</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P15" t="n">
-        <v>2404.218795675883</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164.7973538578535</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C16" t="n">
-        <v>164.7973538578535</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>164.7973538578535</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>164.7973538578535</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>164.7973538578535</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5467,19 +5469,19 @@
         <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W16" t="n">
-        <v>385.5899330013836</v>
+        <v>938.3016445311218</v>
       </c>
       <c r="X16" t="n">
-        <v>385.5899330013836</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y16" t="n">
-        <v>164.7973538578535</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5528,10 +5530,10 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5555,10 +5557,10 @@
         <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250804</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095317</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>2911.709630095317</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M18" t="n">
-        <v>3680.077776487778</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N18" t="n">
-        <v>4045.444533962832</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O18" t="n">
-        <v>4045.444533962832</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698579</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.4909068465488</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W19" t="n">
-        <v>900.4804577445661</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="X19" t="n">
-        <v>672.4909068465488</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y19" t="n">
-        <v>672.4909068465488</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5731,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155896</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382247</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250805</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095318</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L21" t="n">
-        <v>3141.672735963667</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M21" t="n">
-        <v>3910.040882356128</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="N21" t="n">
-        <v>3998.117322000984</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O21" t="n">
-        <v>4667.581083303643</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>4850.224560916994</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4850.224560916994</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>846.3978353108172</v>
+        <v>488.8659712700625</v>
       </c>
       <c r="C22" t="n">
-        <v>677.4616523829103</v>
+        <v>488.8659712700625</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705745</v>
+        <v>488.8659712700625</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705745</v>
+        <v>340.9528776876693</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>340.9528776876693</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>172.7775560074899</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>172.7775560074899</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5935,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1317.463470178018</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>1317.463470178018</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W22" t="n">
-        <v>1028.046300141057</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X22" t="n">
-        <v>1028.046300141057</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="Y22" t="n">
-        <v>1028.046300141057</v>
+        <v>670.5144361003022</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080548</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822475</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028752</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823803</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.28419175141</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.9892362638</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2786.879505108313</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L24" t="n">
-        <v>3016.842610976662</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M24" t="n">
-        <v>3785.210757369124</v>
+        <v>1314.479671120147</v>
       </c>
       <c r="N24" t="n">
-        <v>3785.210757369124</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O24" t="n">
-        <v>4454.674518671784</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P24" t="n">
-        <v>4860.854573014294</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.43444618475</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="C25" t="n">
-        <v>701.4982632568431</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D25" t="n">
-        <v>551.3816238445073</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E25" t="n">
-        <v>403.4685302621142</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>256.5785827642038</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>1306.449562672482</v>
       </c>
       <c r="W25" t="n">
-        <v>1098.423997082767</v>
+        <v>1306.449562672482</v>
       </c>
       <c r="X25" t="n">
-        <v>870.43444618475</v>
+        <v>1078.460011774465</v>
       </c>
       <c r="Y25" t="n">
-        <v>870.43444618475</v>
+        <v>857.6674326309349</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6266,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2334.498159098441</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>2948.395228855329</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M27" t="n">
-        <v>3268.730548385031</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N27" t="n">
-        <v>3660.460177878586</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O27" t="n">
-        <v>4329.923939181245</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P27" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q27" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>581.2185435662825</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="C28" t="n">
-        <v>412.2823606383756</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1151.194666110391</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>1151.194666110391</v>
       </c>
       <c r="V28" t="n">
-        <v>1133.156678913841</v>
+        <v>896.5101779045042</v>
       </c>
       <c r="W28" t="n">
-        <v>990.8565592945396</v>
+        <v>896.5101779045042</v>
       </c>
       <c r="X28" t="n">
-        <v>762.8670083965222</v>
+        <v>896.5101779045042</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.8670083965222</v>
+        <v>675.7175987609741</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,25 +6451,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,7 +6478,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6488,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>2501.346796321636</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>2748.1119242281</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>3241.03295569868</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N30" t="n">
-        <v>4045.444533962831</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O30" t="n">
-        <v>4045.444533962831</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3889.283315426963</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C31" t="n">
-        <v>3889.283315426963</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D31" t="n">
-        <v>3889.283315426963</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E31" t="n">
-        <v>3889.283315426963</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746784</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>4326.074044281177</v>
+        <v>1084.332468404748</v>
       </c>
       <c r="V31" t="n">
-        <v>4071.38955607529</v>
+        <v>1084.332468404748</v>
       </c>
       <c r="W31" t="n">
-        <v>4071.38955607529</v>
+        <v>1084.332468404748</v>
       </c>
       <c r="X31" t="n">
-        <v>4071.38955607529</v>
+        <v>856.3429175067311</v>
       </c>
       <c r="Y31" t="n">
-        <v>3889.283315426963</v>
+        <v>856.3429175067311</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6679,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6695,40 +6697,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>2680.478428425705</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>3294.375498182594</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M33" t="n">
-        <v>3601.695631462555</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N33" t="n">
-        <v>3601.695631462555</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O33" t="n">
-        <v>4271.159392765215</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P33" t="n">
-        <v>4791.460014500962</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4744.160657054475</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4520.375241843982</v>
+        <v>1344.005910290777</v>
       </c>
       <c r="U34" t="n">
-        <v>4231.24660305754</v>
+        <v>1054.877271504335</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851653</v>
+        <v>800.1927832984481</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814692</v>
+        <v>800.1927832984481</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916675</v>
+        <v>800.1927832984481</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>246.2867756623457</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="L36" t="n">
-        <v>860.1838454192343</v>
+        <v>752.6052383825321</v>
       </c>
       <c r="M36" t="n">
-        <v>1628.551991811696</v>
+        <v>754.998473976564</v>
       </c>
       <c r="N36" t="n">
-        <v>1973.072647449314</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O36" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4072.250396089493</v>
+        <v>4095.960335627915</v>
       </c>
       <c r="C37" t="n">
-        <v>4072.250396089493</v>
+        <v>3927.024152700008</v>
       </c>
       <c r="D37" t="n">
-        <v>3922.133756677158</v>
+        <v>3927.024152700008</v>
       </c>
       <c r="E37" t="n">
-        <v>3774.220663094764</v>
+        <v>3927.024152700008</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596854</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
         <v>3459.155393916675</v>
@@ -7126,19 +7128,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="U37" t="n">
-        <v>4837.144633475871</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V37" t="n">
-        <v>4582.460145269984</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W37" t="n">
-        <v>4293.042975233024</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X37" t="n">
-        <v>4293.042975233024</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="Y37" t="n">
-        <v>4072.250396089493</v>
+        <v>4095.960335627915</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7172,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7199,13 +7201,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.29497012173</v>
@@ -7254,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>636.176123741435</v>
       </c>
       <c r="L39" t="n">
-        <v>674.4285624571609</v>
+        <v>1250.073193498324</v>
       </c>
       <c r="M39" t="n">
-        <v>1442.796708849623</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N39" t="n">
-        <v>2247.208287113773</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O39" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>710.3120936331045</v>
+        <v>4241.487948057123</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>4072.551765129215</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>4072.551765129215</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>3924.638671546822</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>4530.905118094083</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.712528333286</v>
+        <v>4530.905118094083</v>
       </c>
       <c r="W40" t="n">
-        <v>809.2953582963255</v>
+        <v>4241.487948057123</v>
       </c>
       <c r="X40" t="n">
-        <v>710.3120936331045</v>
+        <v>4241.487948057123</v>
       </c>
       <c r="Y40" t="n">
-        <v>710.3120936331045</v>
+        <v>4241.487948057123</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7390,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>625.546111644135</v>
       </c>
       <c r="L42" t="n">
-        <v>327.180197328635</v>
+        <v>1239.443181401024</v>
       </c>
       <c r="M42" t="n">
-        <v>1095.548343721096</v>
+        <v>1559.778500930725</v>
       </c>
       <c r="N42" t="n">
-        <v>1440.068999358714</v>
+        <v>2364.190079194876</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.642871543091</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P42" t="n">
         <v>2612.943493278838</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4034.429209302938</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C43" t="n">
-        <v>3865.493026375031</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D43" t="n">
-        <v>3865.493026375031</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E43" t="n">
-        <v>3717.579932792637</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>3570.689985294727</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>3570.689985294727</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>4460.650830789676</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>4460.650830789676</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W43" t="n">
-        <v>4262.418760200955</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="X43" t="n">
-        <v>4034.429209302938</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="Y43" t="n">
-        <v>4034.429209302938</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,7 +7642,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7649,10 +7651,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7691,7 +7693,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>649.7480011519468</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M45" t="n">
-        <v>970.0833206816486</v>
+        <v>994.7638819868627</v>
       </c>
       <c r="N45" t="n">
-        <v>1774.494898945799</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O45" t="n">
-        <v>2023.248313029762</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2543.548934765509</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7831,22 +7833,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V46" t="n">
-        <v>675.0071030383442</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>385.5899330013836</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>157.6003821033663</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8772,25 +8774,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>11.32602659828814</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>395.9822219529383</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>354.591559474553</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599067</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>412.6708631972559</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,19 +9728,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>429.704102006821</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10449,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>144.5514436129596</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>225.826410026997</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>215.0890240701282</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11154,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>116.3687074927065</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11397,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>76.04012184175259</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>159.7254876551342</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.58910868978565</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>260.9472420158635</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>242.5156522450712</v>
       </c>
       <c r="W19" t="n">
-        <v>232.4465393737935</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>35.61438556253995</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>216.5634324262841</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>8.725692072498816</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24421,16 +24423,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>61.59560251726202</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>185.1883350427491</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>145.6458799134826</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>73.72019825055818</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.29947511025151</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25123,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>68.18630439393502</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>108.057619122617</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>262.7645122555404</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>157.5082020111732</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>127.7162233724484</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25786,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>90.27324845375773</v>
+        <v>214.7414972598012</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>158.8051956154452</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>158.8051956154452</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278755</v>
       </c>
       <c r="F2" t="n">
         <v>703852.3075278758</v>
@@ -26329,31 +26331,31 @@
         <v>703852.3075278759</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="I2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="J2" t="n">
+        <v>703852.3075278754</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="L2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="M2" t="n">
+        <v>703852.3075278755</v>
+      </c>
+      <c r="N2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="P2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.3075278754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.3075278758</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26421,43 +26423,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.793690575893</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759206</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758784</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758075</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758727</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905759312</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905759067</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905759103</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26473,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26525,10 +26527,10 @@
         <v>517019.3756338261</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.3756338261</v>
+        <v>517019.3756338262</v>
       </c>
       <c r="E6" t="n">
-        <v>85917.15141168726</v>
+        <v>85917.15141168672</v>
       </c>
       <c r="F6" t="n">
         <v>611077.1878885833</v>
@@ -26537,31 +26539,31 @@
         <v>611077.1878885834</v>
       </c>
       <c r="H6" t="n">
-        <v>611077.1878885834</v>
+        <v>611077.1878885832</v>
       </c>
       <c r="I6" t="n">
+        <v>611077.1878885833</v>
+      </c>
+      <c r="J6" t="n">
+        <v>434653.96869599</v>
+      </c>
+      <c r="K6" t="n">
+        <v>611077.1878885833</v>
+      </c>
+      <c r="L6" t="n">
+        <v>611077.1878885833</v>
+      </c>
+      <c r="M6" t="n">
+        <v>476276.1726547459</v>
+      </c>
+      <c r="N6" t="n">
         <v>611077.1878885832</v>
       </c>
-      <c r="J6" t="n">
-        <v>434653.9686959904</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
+        <v>611077.1878885833</v>
+      </c>
+      <c r="P6" t="n">
         <v>611077.1878885835</v>
-      </c>
-      <c r="L6" t="n">
-        <v>611077.1878885834</v>
-      </c>
-      <c r="M6" t="n">
-        <v>476276.1726547462</v>
-      </c>
-      <c r="N6" t="n">
-        <v>611077.1878885829</v>
-      </c>
-      <c r="O6" t="n">
-        <v>611077.1878885834</v>
-      </c>
-      <c r="P6" t="n">
-        <v>611077.1878885833</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26771,7 +26773,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26805,10 +26807,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>226.139896696886</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>239.2681802650469</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>170.3700094999481</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>105.6838213490261</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>12.4290855484175</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>8.968835464961671</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>128.1284820793564</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>200.8277690662225</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>154.2405709640994</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>103.2866867617198</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>48.70556238944302</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>265.3373289222923</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28141,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.194312413142801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31367,10 +31369,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31601,7 +31603,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>61.04368814949403</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,13 +31618,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31841,19 +31843,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>358.7815198343314</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -32075,28 +32077,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.4749001888145</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32312,28 +32314,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>21.05666852266199</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32470,7 +32472,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961211</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32549,31 +32551,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>220.3078127347023</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32789,13 +32791,13 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>117.8878668898065</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32804,13 +32806,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>225.7945219486463</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32944,7 +32946,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -33023,28 +33025,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>47.68583217771408</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>277.4159737033324</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33181,7 +33183,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33260,25 +33262,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>174.3290019604837</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>321.3972787803987</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33442,7 +33444,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S32" t="n">
         <v>76.0697047810465</v>
@@ -33497,16 +33499,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>222.8512214842703</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -33734,28 +33736,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>151.2216239557391</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>48.06791269472069</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,25 +34210,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>407.8994526266814</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34451,13 +34453,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>222.3490046628627</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34466,7 +34468,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,10 +35017,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.29709682323617</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>682.352549662313</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>99.33905938336227</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>729.1767953509512</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>221.5704138386421</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>369.0573307828822</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>211.9953150301086</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36139,7 +36141,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.8253897034981</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>88.96610065136902</v>
+        <v>281.3291511139226</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>441.4588967177881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>410.2828831742532</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>395.6864944379343</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>528.6820485356175</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>497.9000317884652</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>505.8856400060056</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>349.4750195224899</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>298.3623899234877</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178377</v>
@@ -37169,7 +37171,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>2.417409690941335</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>402.4876987880242</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>376.4018486149362</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>299.3339875270058</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>365.6644626580674</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>659.1655274589665</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>365.6264124487308</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>570.349666923083</v>
       </c>
       <c r="O45" t="n">
         <v>251.2660748322851</v>
@@ -38114,10 +38116,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3822966.592623098</v>
+        <v>3815949.577731386</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>574134.627819759</v>
+        <v>715895.1964581879</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>84.6545924993103</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>61.63425920309733</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.461970681989245</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>38.39834678541066</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>295.568361330683</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>165.4468773440099</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>11.31776988379643</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>20.1751418448721</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>56.65238693340208</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>99.90991062876934</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>145.0714343917596</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>91.20669925687524</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.347695664762908</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>96.84207451769328</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>25.57575632072753</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>9.621991078756796</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274154</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>74.80485990173203</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>190.542040806566</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>36.35922601564015</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>212.5171541480192</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896919</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.3612566644542</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>37.36342890031424</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7291503874041</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>71.78150107678982</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>39.11561436815803</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E2" t="n">
-        <v>160.3215760242197</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="F2" t="n">
-        <v>153.3760752750163</v>
+        <v>861.3583373640508</v>
       </c>
       <c r="G2" t="n">
-        <v>139.4526712136072</v>
+        <v>443.3945292622377</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>116.1998092982406</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4427,25 +4427,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="U4" t="n">
-        <v>63.50052796378793</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="V4" t="n">
-        <v>63.50052796378793</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="W4" t="n">
-        <v>63.50052796378793</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="X4" t="n">
-        <v>63.50052796378793</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.50052796378793</v>
+        <v>2068.619613065019</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>941.2608351981287</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2530.03103309498</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2311.396366067043</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2057.634580705134</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.634580705134</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.86592543502</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.40016717394</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>941.2608351981287</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.7161456655658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>539.1333157025265</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>539.1333157025265</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>539.1333157025265</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>539.1333157025265</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>249.7161456655658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>249.7161456655658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.7161456655658</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2676.770159861786</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2458.135492833849</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="U8" t="n">
-        <v>2458.135492833849</v>
+        <v>1993.546461473039</v>
       </c>
       <c r="V8" t="n">
-        <v>2458.135492833849</v>
+        <v>1936.321828206976</v>
       </c>
       <c r="W8" t="n">
-        <v>2105.366837563734</v>
+        <v>1583.553172936862</v>
       </c>
       <c r="X8" t="n">
-        <v>1731.901079302655</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y8" t="n">
-        <v>1731.901079302655</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>302.7751770479791</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>302.7751770479791</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>581.5921817905153</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>354.283994459117</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782189</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782189</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782189</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5056,7 +5056,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>222.5746515181233</v>
+        <v>479.0983322613959</v>
       </c>
       <c r="M12" t="n">
-        <v>990.9427979105849</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1335.463453548203</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2004.927214850862</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.22783658661</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>357.520392187814</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>874.927113122792</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858313</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X13" t="n">
-        <v>357.520392187814</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y13" t="n">
-        <v>357.520392187814</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="14">
@@ -5278,13 +5278,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5360,25 +5360,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.004430061687</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.889457459129</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.642871543091</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.943493278838</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U16" t="n">
-        <v>964.135741824786</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>964.135741824786</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>938.3016445311218</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>710.3120936331045</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171746</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N18" t="n">
-        <v>1824.002963247254</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5709,16 +5709,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>776.3630235686835</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>486.9458535317229</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>486.9458535317229</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155896</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805478</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382247</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5791,13 +5791,13 @@
         <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>246.2867756623457</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>860.1838454192343</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>860.1838454192343</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>488.8659712700625</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>488.8659712700625</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>488.8659712700625</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>340.9528776876693</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>340.9528776876693</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>172.7775560074899</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>172.7775560074899</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>898.5039869983195</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>670.5144361003022</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>670.5144361003022</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1314.479671120147</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.000326757765</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>676.0189678006951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1306.449562672482</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>1306.449562672482</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>1078.460011774465</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>857.6674326309349</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.726987855212</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1569.24764349283</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1151.194666110391</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1151.194666110391</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>896.5101779045042</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>896.5101779045042</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>896.5101779045042</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6551,16 +6551,16 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1442.339749591389</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1786.860405229007</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2035.613819312969</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1084.332468404748</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1084.332468404748</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>1084.332468404748</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>856.3429175067311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>856.3429175067311</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>738.0704661731477</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1058.405785702849</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1353.784551727102</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2023.248313029762</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1344.005910290777</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1054.877271504335</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>800.1927832984481</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>800.1927832984481</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>800.1927832984481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>579.400204154918</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>138.7081686256435</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>752.6052383825321</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>754.998473976564</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4095.960335627915</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3927.024152700008</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3927.024152700008</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3927.024152700008</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4606.170084808406</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4316.752914771445</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4316.752914771445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4095.960335627915</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7174,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7256,16 +7256,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>636.176123741435</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1250.073193498324</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1570.408513028025</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4241.487948057123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3924.638671546822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4660.934562929845</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4530.905118094083</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4530.905118094083</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4241.487948057123</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4241.487948057123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4241.487948057123</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>625.546111644135</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1239.443181401024</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1559.778500930725</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2364.190079194876</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2366688293934</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>860.7301020851612</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>674.4285624571609</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>994.7638819868627</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7830,25 +7830,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1348.33044553573</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1124.545030325236</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>835.416391538794</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.32602659828814</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>395.9822219529383</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,16 +9257,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>354.591559474553</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>412.6708631972559</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>429.704102006821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>144.5514436129596</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>225.826410026997</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>215.0890240701282</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11153,10 +11153,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.04012184175259</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>145.2677773534494</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>124.705486540696</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>260.9472420158635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>242.5156522450712</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>35.61438556253995</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>61.59560251726202</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>185.1883350427491</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>73.72019825055818</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.18630439393502</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>108.057619122617</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>157.5082020111732</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>214.7414972598012</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>158.8051956154452</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778545</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778546</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="E2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="F2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="H2" t="n">
         <v>703852.3075278758</v>
-      </c>
-      <c r="G2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.3075278756</v>
       </c>
       <c r="I2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278754</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="K2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="L2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="M2" t="n">
         <v>703852.3075278755</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278755</v>
       </c>
       <c r="O2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278756</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.793690575893</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26505,7 +26505,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071824</v>
+        <v>-72948.50358071823</v>
       </c>
       <c r="C6" t="n">
-        <v>517019.3756338261</v>
+        <v>517019.375633826</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.3756338262</v>
+        <v>517019.375633826</v>
       </c>
       <c r="E6" t="n">
-        <v>85917.15141168672</v>
+        <v>84942.56015196536</v>
       </c>
       <c r="F6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288615</v>
       </c>
       <c r="G6" t="n">
-        <v>611077.1878885834</v>
+        <v>610102.5966288615</v>
       </c>
       <c r="H6" t="n">
-        <v>611077.1878885832</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="I6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="J6" t="n">
-        <v>434653.96869599</v>
+        <v>433679.3774362686</v>
       </c>
       <c r="K6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288615</v>
       </c>
       <c r="L6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288615</v>
       </c>
       <c r="M6" t="n">
-        <v>476276.1726547459</v>
+        <v>475301.5813950242</v>
       </c>
       <c r="N6" t="n">
-        <v>611077.1878885832</v>
+        <v>610102.5966288614</v>
       </c>
       <c r="O6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="P6" t="n">
-        <v>611077.1878885835</v>
+        <v>610102.5966288615</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26755,16 +26755,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,7 +26773,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>239.2681802650469</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>90.29705704176392</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.3700094999481</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>247.8835274565671</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>8.968835464961671</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>200.8277690662225</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.2405709640994</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>271.0998715367328</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>48.70556238944302</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>67.07410455825928</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.194312413142801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653333</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,19 +31840,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>331.8073893088565</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31864,7 +31864,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -32080,28 +32080,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>301.7970625436787</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32314,31 +32314,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961211</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,28 +32560,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>117.8878668898065</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>277.4159737033324</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,28 +33271,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>321.3972787803987</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33444,7 +33444,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
         <v>76.0697047810465</v>
@@ -33505,25 +33505,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
         <v>76.0697047810465</v>
@@ -33739,25 +33739,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33885,25 +33885,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,28 +33982,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,22 +34219,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34447,31 +34447,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>222.3490046628627</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>193.2530095289823</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.33905938336227</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>729.1767953509512</v>
+        <v>649.797724803899</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>211.9953150301086</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>281.3291511139226</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>441.4588967177881</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>528.6820485356175</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>505.8856400060056</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>298.3623899234877</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>2.417409690941335</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>376.4018486149362</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>365.6644626580674</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>570.349666923083</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3815949.577731386</v>
+        <v>3820888.840580419</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>715895.1964581879</v>
+        <v>715895.1964581872</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>61.63425920309675</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>61.63425920309733</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -873,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>38.39834678541066</v>
+        <v>38.39834678541111</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.60408762095413</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,7 +1192,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>56.65238693340208</v>
+        <v>56.65238693340321</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>145.0714343917596</v>
+        <v>145.07143439176</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385015</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.347695664762908</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>32.28492340924037</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>96.84207451769328</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>119.0929986500071</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>220.0883375064757</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>105.6571329437492</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896919</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>58.62482092430315</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214858</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>177.7059714321714</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4315,28 +4315,28 @@
         <v>1272.344242153658</v>
       </c>
       <c r="E2" t="n">
-        <v>1272.344242153658</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>861.3583373640508</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>443.3945292622377</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>116.1998092982406</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,10 +4360,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,22 +4430,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4494,22 +4494,22 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
         <v>2549.002432452407</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198135</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374204</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>84.85620163951003</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4792,52 +4792,52 @@
         <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862884</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473039</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
         <v>1936.321828206976</v>
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4962,31 +4962,31 @@
         <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
         <v>581.5921817905153</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5035,10 +5035,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5047,7 +5047,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,13 +5117,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>232.3332043549318</v>
       </c>
       <c r="L12" t="n">
         <v>479.0983322613959</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.5986022327736</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C13" t="n">
-        <v>100.5986022327736</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045608</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>503.0396462065435</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>282.2470670630133</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1090.100879744681</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5734,19 +5734,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1276.604818531159</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1276.604818531159</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5998,16 +5998,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6414,7 +6414,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011506</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6654,13 +6654,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6679,16 +6679,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6697,13 +6697,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,10 +6776,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
         <v>508.1073603047985</v>
@@ -6788,7 +6788,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>761.3093662244439</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>761.3093662244439</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>540.5167870809138</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,43 +6931,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6976,13 +6976,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M36" t="n">
         <v>2056.693778606511</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,25 +7186,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M39" t="n">
         <v>2056.693778606511</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,10 +7487,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
         <v>508.1073603047985</v>
@@ -7499,7 +7499,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7578,13 +7578,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,28 +7627,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514081</v>
@@ -7660,19 +7660,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7724,10 +7724,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
         <v>508.1073603047985</v>
@@ -7736,7 +7736,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7815,13 +7815,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T46" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298206</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>145.2677773534494</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>114.1490392373288</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>124.705486540696</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>106.61665673903</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>66.14901489210163</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>120.0525224452879</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>227.8981774122879</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>14.7411341369035</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>48.00368395686573</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278755</v>
+      </c>
+      <c r="F2" t="n">
         <v>703852.3075278759</v>
-      </c>
-      <c r="F2" t="n">
-        <v>703852.3075278756</v>
       </c>
       <c r="G2" t="n">
         <v>703852.3075278756</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="J2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="K2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="L2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="M2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="N2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="L2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>703852.3075278755</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>703852.3075278755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.3075278756</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
@@ -26441,19 +26441,19 @@
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759101</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759102</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759235</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759235</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26499,13 +26499,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071823</v>
+        <v>-72948.5035807185</v>
       </c>
       <c r="C6" t="n">
         <v>517019.375633826</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.375633826</v>
+        <v>517019.3756338262</v>
       </c>
       <c r="E6" t="n">
-        <v>84942.56015196536</v>
+        <v>85819.69228571471</v>
       </c>
       <c r="F6" t="n">
-        <v>610102.5966288615</v>
+        <v>610979.7287626113</v>
       </c>
       <c r="G6" t="n">
-        <v>610102.5966288615</v>
+        <v>610979.728762611</v>
       </c>
       <c r="H6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.728762611</v>
       </c>
       <c r="I6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626113</v>
       </c>
       <c r="J6" t="n">
-        <v>433679.3774362686</v>
+        <v>434556.5095700182</v>
       </c>
       <c r="K6" t="n">
-        <v>610102.5966288615</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="L6" t="n">
-        <v>610102.5966288615</v>
+        <v>610979.7287626115</v>
       </c>
       <c r="M6" t="n">
-        <v>475301.5813950242</v>
+        <v>476178.7135287739</v>
       </c>
       <c r="N6" t="n">
-        <v>610102.5966288614</v>
+        <v>610979.728762611</v>
       </c>
       <c r="O6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626109</v>
       </c>
       <c r="P6" t="n">
-        <v>610102.5966288615</v>
+        <v>610979.7287626109</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>320.296110869165</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90.29705704176392</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>247.8835274565671</v>
+        <v>247.8835274565666</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>14.59587156758288</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>271.0998715367328</v>
+        <v>271.0998715367317</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>67.07410455825928</v>
+        <v>67.07410455825894</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653333</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>232.4121821352563</v>
       </c>
       <c r="L12" t="n">
-        <v>331.8073893088565</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724846</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>301.7970625436787</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32326,7 +32326,7 @@
         <v>129.3623873097339</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33207,7 +33207,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33505,13 +33505,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33590,10 +33590,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>224.6051223555648</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33827,10 +33827,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>224.6051223555648</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34064,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34216,13 +34216,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34301,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34453,13 +34453,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34538,10 +34538,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535621</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047529</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>94.57074316089728</v>
       </c>
       <c r="L12" t="n">
-        <v>193.2530095289823</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004662</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>649.797724803899</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>452.9334171377155</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N36" t="n">
         <v>572.6057846157851</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N39" t="n">
         <v>572.6057846157851</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
